--- a/Code/Results/Cases/Case_4_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02487420192274</v>
+        <v>1.054610263093101</v>
       </c>
       <c r="D2">
-        <v>1.037308880974497</v>
+        <v>1.053306798612993</v>
       </c>
       <c r="E2">
-        <v>1.040218893487016</v>
+        <v>1.068088514750336</v>
       </c>
       <c r="F2">
-        <v>1.042444194739591</v>
+        <v>1.07512130141437</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056885396922612</v>
+        <v>1.04859352851958</v>
       </c>
       <c r="J2">
-        <v>1.046335556814349</v>
+        <v>1.059621457931861</v>
       </c>
       <c r="K2">
-        <v>1.048271807397475</v>
+        <v>1.05605312985389</v>
       </c>
       <c r="L2">
-        <v>1.051144969962562</v>
+        <v>1.070794633638798</v>
       </c>
       <c r="M2">
-        <v>1.053342264998932</v>
+        <v>1.077808707890674</v>
       </c>
       <c r="N2">
-        <v>1.018252087150798</v>
+        <v>1.023525571709366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030775479751262</v>
+        <v>1.055802924411355</v>
       </c>
       <c r="D3">
-        <v>1.041744407703139</v>
+        <v>1.054209404730506</v>
       </c>
       <c r="E3">
-        <v>1.045950798948373</v>
+        <v>1.069305707358738</v>
       </c>
       <c r="F3">
-        <v>1.048749087270671</v>
+        <v>1.076480496108739</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059224005134638</v>
+        <v>1.048983139922067</v>
       </c>
       <c r="J3">
-        <v>1.050460939466848</v>
+        <v>1.060464291693418</v>
       </c>
       <c r="K3">
-        <v>1.05186963241215</v>
+        <v>1.056768524974702</v>
       </c>
       <c r="L3">
-        <v>1.056027644725375</v>
+        <v>1.07182673942624</v>
       </c>
       <c r="M3">
-        <v>1.058794014235271</v>
+        <v>1.078983829075165</v>
       </c>
       <c r="N3">
-        <v>1.019718536592024</v>
+        <v>1.023817917550371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034497609237331</v>
+        <v>1.056574196938277</v>
       </c>
       <c r="D4">
-        <v>1.044544085681348</v>
+        <v>1.054792966454642</v>
       </c>
       <c r="E4">
-        <v>1.049571285263858</v>
+        <v>1.070093241359226</v>
       </c>
       <c r="F4">
-        <v>1.052733001324549</v>
+        <v>1.077360188796475</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060687387631636</v>
+        <v>1.049233662641216</v>
       </c>
       <c r="J4">
-        <v>1.053058215079478</v>
+        <v>1.061008659025667</v>
       </c>
       <c r="K4">
-        <v>1.054133059474497</v>
+        <v>1.057230316573381</v>
       </c>
       <c r="L4">
-        <v>1.059106092122349</v>
+        <v>1.072493938871682</v>
       </c>
       <c r="M4">
-        <v>1.06223406581746</v>
+        <v>1.079743869130526</v>
       </c>
       <c r="N4">
-        <v>1.020640694146835</v>
+        <v>1.024006476319868</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036040367771628</v>
+        <v>1.056898332245845</v>
       </c>
       <c r="D5">
-        <v>1.0457049277677</v>
+        <v>1.055038180739469</v>
       </c>
       <c r="E5">
-        <v>1.051073127084038</v>
+        <v>1.070424305615185</v>
       </c>
       <c r="F5">
-        <v>1.054385982220255</v>
+        <v>1.077730062560424</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061291096435388</v>
+        <v>1.049338604416671</v>
       </c>
       <c r="J5">
-        <v>1.054133565972755</v>
+        <v>1.061237272487854</v>
       </c>
       <c r="K5">
-        <v>1.055069762986391</v>
+        <v>1.05742418747344</v>
       </c>
       <c r="L5">
-        <v>1.060381730047814</v>
+        <v>1.072774277584035</v>
       </c>
       <c r="M5">
-        <v>1.06366023145793</v>
+        <v>1.08006331019014</v>
       </c>
       <c r="N5">
-        <v>1.021022216498832</v>
+        <v>1.024085601109145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036298141459033</v>
+        <v>1.056952749742106</v>
       </c>
       <c r="D6">
-        <v>1.045898911511004</v>
+        <v>1.05507934657834</v>
       </c>
       <c r="E6">
-        <v>1.05132413457283</v>
+        <v>1.070479891935669</v>
       </c>
       <c r="F6">
-        <v>1.054662273153425</v>
+        <v>1.07779216905083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061391799789182</v>
+        <v>1.049356202459256</v>
       </c>
       <c r="J6">
-        <v>1.054313172108879</v>
+        <v>1.061275643746071</v>
       </c>
       <c r="K6">
-        <v>1.055226186757807</v>
+        <v>1.05745672366717</v>
       </c>
       <c r="L6">
-        <v>1.060594851472604</v>
+        <v>1.072821338829137</v>
       </c>
       <c r="M6">
-        <v>1.063898542389126</v>
+        <v>1.080116941131733</v>
       </c>
       <c r="N6">
-        <v>1.021085921872759</v>
+        <v>1.024098877998627</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034518308854565</v>
+        <v>1.056578528470351</v>
       </c>
       <c r="D7">
-        <v>1.044559659430427</v>
+        <v>1.054796243470801</v>
       </c>
       <c r="E7">
-        <v>1.049591431135351</v>
+        <v>1.070097665112651</v>
       </c>
       <c r="F7">
-        <v>1.052755173051867</v>
+        <v>1.077365130864578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06069549903612</v>
+        <v>1.049235066362624</v>
       </c>
       <c r="J7">
-        <v>1.053072648055343</v>
+        <v>1.061011714705549</v>
       </c>
       <c r="K7">
-        <v>1.054145633270784</v>
+        <v>1.057232908130802</v>
       </c>
       <c r="L7">
-        <v>1.059123209039103</v>
+        <v>1.072497685366071</v>
       </c>
       <c r="M7">
-        <v>1.062253199828872</v>
+        <v>1.079748137828479</v>
       </c>
       <c r="N7">
-        <v>1.020645815927597</v>
+        <v>1.024007534159711</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026889180969716</v>
+        <v>1.055013424981424</v>
       </c>
       <c r="D8">
-        <v>1.038822909697176</v>
+        <v>1.053611939556155</v>
       </c>
       <c r="E8">
-        <v>1.042174929608767</v>
+        <v>1.068499886575798</v>
       </c>
       <c r="F8">
-        <v>1.044595461390309</v>
+        <v>1.075580607071869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057686336033882</v>
+        <v>1.048725527506513</v>
       </c>
       <c r="J8">
-        <v>1.047745133271202</v>
+        <v>1.059906505976993</v>
       </c>
       <c r="K8">
-        <v>1.049501476468282</v>
+        <v>1.056295132902799</v>
       </c>
       <c r="L8">
-        <v>1.052812383661708</v>
+        <v>1.071143572618507</v>
       </c>
       <c r="M8">
-        <v>1.055203431326857</v>
+        <v>1.078205917647692</v>
       </c>
       <c r="N8">
-        <v>1.018753370119098</v>
+        <v>1.023624497578776</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01265622484814</v>
+        <v>1.052251895681693</v>
       </c>
       <c r="D9">
-        <v>1.028140194564325</v>
+        <v>1.051521286688022</v>
       </c>
       <c r="E9">
-        <v>1.028381973038409</v>
+        <v>1.065683764608641</v>
       </c>
       <c r="F9">
-        <v>1.02943135246177</v>
+        <v>1.072437493912655</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051980681274848</v>
+        <v>1.047815506133531</v>
       </c>
       <c r="J9">
-        <v>1.037769841042819</v>
+        <v>1.057951244912742</v>
       </c>
       <c r="K9">
-        <v>1.040792638373608</v>
+        <v>1.054634049691265</v>
       </c>
       <c r="L9">
-        <v>1.041030764061137</v>
+        <v>1.068752456512417</v>
       </c>
       <c r="M9">
-        <v>1.042064314791674</v>
+        <v>1.075485616487785</v>
       </c>
       <c r="N9">
-        <v>1.015201863000877</v>
+        <v>1.022944860852314</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002558341444618</v>
+        <v>1.050408301085925</v>
       </c>
       <c r="D10">
-        <v>1.020579680445275</v>
+        <v>1.05012492569641</v>
       </c>
       <c r="E10">
-        <v>1.018628214602906</v>
+        <v>1.063805799281021</v>
       </c>
       <c r="F10">
-        <v>1.018713882980462</v>
+        <v>1.070342904301423</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047873259238506</v>
+        <v>1.047200609170978</v>
       </c>
       <c r="J10">
-        <v>1.03067082221504</v>
+        <v>1.056642440159757</v>
       </c>
       <c r="K10">
-        <v>1.034587044839326</v>
+        <v>1.053520805222448</v>
       </c>
       <c r="L10">
-        <v>1.032669083763647</v>
+        <v>1.067154906593047</v>
       </c>
       <c r="M10">
-        <v>1.032753277815678</v>
+        <v>1.073670126061205</v>
       </c>
       <c r="N10">
-        <v>1.01267003761937</v>
+        <v>1.022488600695608</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9980215404577416</v>
+        <v>1.049609360942193</v>
       </c>
       <c r="D11">
-        <v>1.01718853957907</v>
+        <v>1.049519655656095</v>
       </c>
       <c r="E11">
-        <v>1.014254237709856</v>
+        <v>1.062992460213593</v>
       </c>
       <c r="F11">
-        <v>1.013908746486663</v>
+        <v>1.069436083425846</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046014461205664</v>
+        <v>1.046932392161675</v>
       </c>
       <c r="J11">
-        <v>1.027476857913277</v>
+        <v>1.056074435648743</v>
       </c>
       <c r="K11">
-        <v>1.031793425372908</v>
+        <v>1.053037352706644</v>
       </c>
       <c r="L11">
-        <v>1.028912255047817</v>
+        <v>1.066462300319329</v>
       </c>
       <c r="M11">
-        <v>1.02857304598222</v>
+        <v>1.072883504388871</v>
       </c>
       <c r="N11">
-        <v>1.011530158919164</v>
+        <v>1.02229027767013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9963097891963594</v>
+        <v>1.049312498216509</v>
       </c>
       <c r="D12">
-        <v>1.015910017337011</v>
+        <v>1.04929473435634</v>
       </c>
       <c r="E12">
-        <v>1.012605213411245</v>
+        <v>1.062690322105488</v>
       </c>
       <c r="F12">
-        <v>1.012097285907692</v>
+        <v>1.069099269263621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045311180291343</v>
+        <v>1.046832468541781</v>
       </c>
       <c r="J12">
-        <v>1.026271150660653</v>
+        <v>1.055863258752019</v>
       </c>
       <c r="K12">
-        <v>1.030738625032262</v>
+        <v>1.052857563523701</v>
       </c>
       <c r="L12">
-        <v>1.027494837428685</v>
+        <v>1.066204904489239</v>
       </c>
       <c r="M12">
-        <v>1.026996333824782</v>
+        <v>1.072591239903366</v>
       </c>
       <c r="N12">
-        <v>1.011099768080196</v>
+        <v>1.022216497049027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9966782009741671</v>
+        <v>1.049376180886221</v>
       </c>
       <c r="D13">
-        <v>1.016185141728997</v>
+        <v>1.049342985153705</v>
       </c>
       <c r="E13">
-        <v>1.012960065403664</v>
+        <v>1.062755133053095</v>
       </c>
       <c r="F13">
-        <v>1.012487087875365</v>
+        <v>1.069171516212576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04546263092938</v>
+        <v>1.046853915903176</v>
       </c>
       <c r="J13">
-        <v>1.026530675702551</v>
+        <v>1.055908565755984</v>
       </c>
       <c r="K13">
-        <v>1.030965677421032</v>
+        <v>1.052896138594525</v>
       </c>
       <c r="L13">
-        <v>1.02779989810676</v>
+        <v>1.066260122734965</v>
       </c>
       <c r="M13">
-        <v>1.027335658260026</v>
+        <v>1.072653935208542</v>
       </c>
       <c r="N13">
-        <v>1.011192412224134</v>
+        <v>1.022232328438044</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9978806004289064</v>
+        <v>1.049584824249437</v>
       </c>
       <c r="D14">
-        <v>1.017083249880574</v>
+        <v>1.049501065579516</v>
       </c>
       <c r="E14">
-        <v>1.014118435816417</v>
+        <v>1.062967485964615</v>
       </c>
       <c r="F14">
-        <v>1.013759565401052</v>
+        <v>1.069408241882474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045956594535363</v>
+        <v>1.0469241384859</v>
       </c>
       <c r="J14">
-        <v>1.0273775959664</v>
+        <v>1.056056983684116</v>
       </c>
       <c r="K14">
-        <v>1.031706591462441</v>
+        <v>1.053022495638595</v>
       </c>
       <c r="L14">
-        <v>1.02879554818075</v>
+        <v>1.066441026585995</v>
       </c>
       <c r="M14">
-        <v>1.028443214121435</v>
+        <v>1.072859347325666</v>
       </c>
       <c r="N14">
-        <v>1.011494727964645</v>
+        <v>1.022284181282257</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.998617856336154</v>
+        <v>1.049713362869928</v>
       </c>
       <c r="D15">
-        <v>1.017634059339838</v>
+        <v>1.049598451243311</v>
       </c>
       <c r="E15">
-        <v>1.014828867160842</v>
+        <v>1.063098319845802</v>
       </c>
       <c r="F15">
-        <v>1.014539992813616</v>
+        <v>1.069554098870409</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046259215569604</v>
+        <v>1.046967365698978</v>
       </c>
       <c r="J15">
-        <v>1.027896809674311</v>
+        <v>1.056148403007001</v>
       </c>
       <c r="K15">
-        <v>1.032160788433544</v>
+        <v>1.053100320061888</v>
       </c>
       <c r="L15">
-        <v>1.029406042940637</v>
+        <v>1.066552469987875</v>
       </c>
       <c r="M15">
-        <v>1.029122384113051</v>
+        <v>1.072985898070976</v>
       </c>
       <c r="N15">
-        <v>1.01168005458571</v>
+        <v>1.022316114326819</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002855814330374</v>
+        <v>1.050461310137921</v>
       </c>
       <c r="D16">
-        <v>1.020802160870422</v>
+        <v>1.050165081943231</v>
       </c>
       <c r="E16">
-        <v>1.018915186644273</v>
+        <v>1.063859774163988</v>
       </c>
       <c r="F16">
-        <v>1.01902916083095</v>
+        <v>1.070403089918756</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047994865551591</v>
+        <v>1.04721836841394</v>
       </c>
       <c r="J16">
-        <v>1.030880158606472</v>
+        <v>1.056680109545312</v>
       </c>
       <c r="K16">
-        <v>1.034770110319067</v>
+        <v>1.053552860531342</v>
       </c>
       <c r="L16">
-        <v>1.032915418036617</v>
+        <v>1.067200854344206</v>
       </c>
       <c r="M16">
-        <v>1.033027437993382</v>
+        <v>1.073722320736846</v>
       </c>
       <c r="N16">
-        <v>1.012744732704875</v>
+        <v>1.022501746697233</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005468896774984</v>
+        <v>1.050930301223261</v>
       </c>
       <c r="D17">
-        <v>1.022757144091368</v>
+        <v>1.050520342991716</v>
       </c>
       <c r="E17">
-        <v>1.021436964003224</v>
+        <v>1.064337367632382</v>
       </c>
       <c r="F17">
-        <v>1.021799786590031</v>
+        <v>1.070935677622618</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049061577052433</v>
+        <v>1.04737528962662</v>
       </c>
       <c r="J17">
-        <v>1.03271852352982</v>
+        <v>1.05701329005401</v>
       </c>
       <c r="K17">
-        <v>1.036377586471839</v>
+        <v>1.053836348566812</v>
       </c>
       <c r="L17">
-        <v>1.035079283329296</v>
+        <v>1.06760733774086</v>
       </c>
       <c r="M17">
-        <v>1.03543608626425</v>
+        <v>1.074184122823864</v>
       </c>
       <c r="N17">
-        <v>1.013400610910722</v>
+        <v>1.022617985299133</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006977343417329</v>
+        <v>1.051203793124053</v>
       </c>
       <c r="D18">
-        <v>1.02388621824718</v>
+        <v>1.0507274994341</v>
       </c>
       <c r="E18">
-        <v>1.022893474399816</v>
+        <v>1.064615923818101</v>
       </c>
       <c r="F18">
-        <v>1.023400122818125</v>
+        <v>1.071246341726499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049676085003035</v>
+        <v>1.04746662982594</v>
       </c>
       <c r="J18">
-        <v>1.033779322144989</v>
+        <v>1.057207504907152</v>
       </c>
       <c r="K18">
-        <v>1.037305000030528</v>
+        <v>1.054001566369886</v>
       </c>
       <c r="L18">
-        <v>1.036328400727458</v>
+        <v>1.067844350136383</v>
       </c>
       <c r="M18">
-        <v>1.036826804724475</v>
+        <v>1.074453435883908</v>
       </c>
       <c r="N18">
-        <v>1.013779000628367</v>
+        <v>1.02268571207764</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007489072644185</v>
+        <v>1.051297036252718</v>
       </c>
       <c r="D19">
-        <v>1.024269334215317</v>
+        <v>1.050798124069827</v>
       </c>
       <c r="E19">
-        <v>1.023387713796088</v>
+        <v>1.064710901641498</v>
       </c>
       <c r="F19">
-        <v>1.023943184427889</v>
+        <v>1.071352272744913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049884335038284</v>
+        <v>1.047497742397527</v>
       </c>
       <c r="J19">
-        <v>1.034139115558767</v>
+        <v>1.057273706228712</v>
       </c>
       <c r="K19">
-        <v>1.03761952610746</v>
+        <v>1.054057878353162</v>
       </c>
       <c r="L19">
-        <v>1.036752150939684</v>
+        <v>1.067925151315923</v>
       </c>
       <c r="M19">
-        <v>1.037298642589359</v>
+        <v>1.074545256569015</v>
       </c>
       <c r="N19">
-        <v>1.013907326642991</v>
+        <v>1.022708792753511</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005190176813753</v>
+        <v>1.050879989422184</v>
       </c>
       <c r="D20">
-        <v>1.022548563676583</v>
+        <v>1.050482233196847</v>
       </c>
       <c r="E20">
-        <v>1.021167902456368</v>
+        <v>1.064286128048291</v>
       </c>
       <c r="F20">
-        <v>1.021504164218221</v>
+        <v>1.070878534504788</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048947929497691</v>
+        <v>1.047358473052613</v>
       </c>
       <c r="J20">
-        <v>1.032522481610611</v>
+        <v>1.056977555748298</v>
       </c>
       <c r="K20">
-        <v>1.036206182254353</v>
+        <v>1.053805947059418</v>
       </c>
       <c r="L20">
-        <v>1.034848479083562</v>
+        <v>1.067563734469801</v>
       </c>
       <c r="M20">
-        <v>1.03517914202079</v>
+        <v>1.074134580845373</v>
       </c>
       <c r="N20">
-        <v>1.013330676064837</v>
+        <v>1.022605521576068</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9975272736794832</v>
+        <v>1.049523386784721</v>
       </c>
       <c r="D21">
-        <v>1.016819311983019</v>
+        <v>1.049454517524924</v>
       </c>
       <c r="E21">
-        <v>1.013778011024877</v>
+        <v>1.06290495411206</v>
       </c>
       <c r="F21">
-        <v>1.013385603693903</v>
+        <v>1.069338531559809</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045811495709232</v>
+        <v>1.046903467861547</v>
       </c>
       <c r="J21">
-        <v>1.02712874359705</v>
+        <v>1.056013283694418</v>
       </c>
       <c r="K21">
-        <v>1.031488893028746</v>
+        <v>1.052985292541321</v>
       </c>
       <c r="L21">
-        <v>1.028502973233212</v>
+        <v>1.066387758546327</v>
       </c>
       <c r="M21">
-        <v>1.028117743045883</v>
+        <v>1.072798860756605</v>
       </c>
       <c r="N21">
-        <v>1.011405900216555</v>
+        <v>1.022268915080374</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9925544286647897</v>
+        <v>1.048669852318872</v>
       </c>
       <c r="D22">
-        <v>1.013107023793859</v>
+        <v>1.048807789636566</v>
       </c>
       <c r="E22">
-        <v>1.008989918596261</v>
+        <v>1.062036393323297</v>
       </c>
       <c r="F22">
-        <v>1.008126035136039</v>
+        <v>1.068370381797992</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043764756616491</v>
+        <v>1.04661567565603</v>
       </c>
       <c r="J22">
-        <v>1.023624929831143</v>
+        <v>1.0554058799776</v>
       </c>
       <c r="K22">
-        <v>1.028423224231796</v>
+        <v>1.052468079097214</v>
       </c>
       <c r="L22">
-        <v>1.024385362634783</v>
+        <v>1.065647616600986</v>
       </c>
       <c r="M22">
-        <v>1.023538214377789</v>
+        <v>1.071958586899217</v>
       </c>
       <c r="N22">
-        <v>1.010155028106874</v>
+        <v>1.022056613800439</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9952059910854115</v>
+        <v>1.049122383467656</v>
       </c>
       <c r="D23">
-        <v>1.015085868690641</v>
+        <v>1.049150686101113</v>
       </c>
       <c r="E23">
-        <v>1.011542236035411</v>
+        <v>1.062496850040109</v>
       </c>
       <c r="F23">
-        <v>1.010929627815377</v>
+        <v>1.068883606796271</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044857138648803</v>
+        <v>1.046768402407352</v>
       </c>
       <c r="J23">
-        <v>1.025493503244659</v>
+        <v>1.055727983704733</v>
       </c>
       <c r="K23">
-        <v>1.030058248822308</v>
+        <v>1.052742381335124</v>
       </c>
       <c r="L23">
-        <v>1.026580857161916</v>
+        <v>1.066040052592854</v>
       </c>
       <c r="M23">
-        <v>1.02597976190077</v>
+        <v>1.072404075872304</v>
       </c>
       <c r="N23">
-        <v>1.010822155278385</v>
+        <v>1.022169221788571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005316166806996</v>
+        <v>1.050902723353038</v>
       </c>
       <c r="D24">
-        <v>1.022642846812301</v>
+        <v>1.050499453562261</v>
       </c>
       <c r="E24">
-        <v>1.021289524160103</v>
+        <v>1.064309281060217</v>
       </c>
       <c r="F24">
-        <v>1.021637791689735</v>
+        <v>1.070904354974574</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048999305632357</v>
+        <v>1.047366072323427</v>
       </c>
       <c r="J24">
-        <v>1.032611099922863</v>
+        <v>1.056993702925106</v>
       </c>
       <c r="K24">
-        <v>1.036283663880947</v>
+        <v>1.053819684612147</v>
       </c>
       <c r="L24">
-        <v>1.034952809738272</v>
+        <v>1.067583437165999</v>
       </c>
       <c r="M24">
-        <v>1.035295287838962</v>
+        <v>1.074156966882119</v>
       </c>
       <c r="N24">
-        <v>1.0133622894744</v>
+        <v>1.022611153622325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016436984481293</v>
+        <v>1.052966260551665</v>
       </c>
       <c r="D25">
-        <v>1.030975095253045</v>
+        <v>1.052062222653874</v>
       </c>
       <c r="E25">
-        <v>1.032040576504963</v>
+        <v>1.066411887460381</v>
       </c>
       <c r="F25">
-        <v>1.033452523571621</v>
+        <v>1.073249908391103</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053506681874298</v>
+        <v>1.048052213085966</v>
       </c>
       <c r="J25">
-        <v>1.040423563978532</v>
+        <v>1.058457653697076</v>
       </c>
       <c r="K25">
-        <v>1.043110865667167</v>
+        <v>1.055064506379253</v>
       </c>
       <c r="L25">
-        <v>1.044161061780828</v>
+        <v>1.069371221076101</v>
       </c>
       <c r="M25">
-        <v>1.045552814844525</v>
+        <v>1.076189214599738</v>
       </c>
       <c r="N25">
-        <v>1.016147496647884</v>
+        <v>1.023121120012596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054610263093101</v>
+        <v>1.024874201922741</v>
       </c>
       <c r="D2">
-        <v>1.053306798612993</v>
+        <v>1.037308880974498</v>
       </c>
       <c r="E2">
-        <v>1.068088514750336</v>
+        <v>1.040218893487017</v>
       </c>
       <c r="F2">
-        <v>1.07512130141437</v>
+        <v>1.042444194739593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04859352851958</v>
+        <v>1.056885396922613</v>
       </c>
       <c r="J2">
-        <v>1.059621457931861</v>
+        <v>1.04633555681435</v>
       </c>
       <c r="K2">
-        <v>1.05605312985389</v>
+        <v>1.048271807397476</v>
       </c>
       <c r="L2">
-        <v>1.070794633638798</v>
+        <v>1.051144969962563</v>
       </c>
       <c r="M2">
-        <v>1.077808707890674</v>
+        <v>1.053342264998934</v>
       </c>
       <c r="N2">
-        <v>1.023525571709366</v>
+        <v>1.018252087150798</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055802924411355</v>
+        <v>1.030775479751263</v>
       </c>
       <c r="D3">
-        <v>1.054209404730506</v>
+        <v>1.041744407703139</v>
       </c>
       <c r="E3">
-        <v>1.069305707358738</v>
+        <v>1.045950798948373</v>
       </c>
       <c r="F3">
-        <v>1.076480496108739</v>
+        <v>1.048749087270671</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048983139922067</v>
+        <v>1.059224005134639</v>
       </c>
       <c r="J3">
-        <v>1.060464291693418</v>
+        <v>1.050460939466849</v>
       </c>
       <c r="K3">
-        <v>1.056768524974702</v>
+        <v>1.05186963241215</v>
       </c>
       <c r="L3">
-        <v>1.07182673942624</v>
+        <v>1.056027644725375</v>
       </c>
       <c r="M3">
-        <v>1.078983829075165</v>
+        <v>1.058794014235271</v>
       </c>
       <c r="N3">
-        <v>1.023817917550371</v>
+        <v>1.019718536592024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056574196938277</v>
+        <v>1.034497609237332</v>
       </c>
       <c r="D4">
-        <v>1.054792966454642</v>
+        <v>1.044544085681349</v>
       </c>
       <c r="E4">
-        <v>1.070093241359226</v>
+        <v>1.049571285263858</v>
       </c>
       <c r="F4">
-        <v>1.077360188796475</v>
+        <v>1.05273300132455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049233662641216</v>
+        <v>1.060687387631637</v>
       </c>
       <c r="J4">
-        <v>1.061008659025667</v>
+        <v>1.053058215079478</v>
       </c>
       <c r="K4">
-        <v>1.057230316573381</v>
+        <v>1.054133059474497</v>
       </c>
       <c r="L4">
-        <v>1.072493938871682</v>
+        <v>1.05910609212235</v>
       </c>
       <c r="M4">
-        <v>1.079743869130526</v>
+        <v>1.062234065817461</v>
       </c>
       <c r="N4">
-        <v>1.024006476319868</v>
+        <v>1.020640694146835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056898332245845</v>
+        <v>1.036040367771626</v>
       </c>
       <c r="D5">
-        <v>1.055038180739469</v>
+        <v>1.045704927767699</v>
       </c>
       <c r="E5">
-        <v>1.070424305615185</v>
+        <v>1.051073127084036</v>
       </c>
       <c r="F5">
-        <v>1.077730062560424</v>
+        <v>1.054385982220253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049338604416671</v>
+        <v>1.061291096435387</v>
       </c>
       <c r="J5">
-        <v>1.061237272487854</v>
+        <v>1.054133565972753</v>
       </c>
       <c r="K5">
-        <v>1.05742418747344</v>
+        <v>1.055069762986389</v>
       </c>
       <c r="L5">
-        <v>1.072774277584035</v>
+        <v>1.060381730047813</v>
       </c>
       <c r="M5">
-        <v>1.08006331019014</v>
+        <v>1.063660231457928</v>
       </c>
       <c r="N5">
-        <v>1.024085601109145</v>
+        <v>1.021022216498832</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056952749742106</v>
+        <v>1.036298141459032</v>
       </c>
       <c r="D6">
-        <v>1.05507934657834</v>
+        <v>1.045898911511004</v>
       </c>
       <c r="E6">
-        <v>1.070479891935669</v>
+        <v>1.051324134572829</v>
       </c>
       <c r="F6">
-        <v>1.07779216905083</v>
+        <v>1.054662273153424</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049356202459256</v>
+        <v>1.061391799789182</v>
       </c>
       <c r="J6">
-        <v>1.061275643746071</v>
+        <v>1.054313172108879</v>
       </c>
       <c r="K6">
-        <v>1.05745672366717</v>
+        <v>1.055226186757806</v>
       </c>
       <c r="L6">
-        <v>1.072821338829137</v>
+        <v>1.060594851472604</v>
       </c>
       <c r="M6">
-        <v>1.080116941131733</v>
+        <v>1.063898542389125</v>
       </c>
       <c r="N6">
-        <v>1.024098877998627</v>
+        <v>1.021085921872759</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056578528470351</v>
+        <v>1.034518308854565</v>
       </c>
       <c r="D7">
-        <v>1.054796243470801</v>
+        <v>1.044559659430427</v>
       </c>
       <c r="E7">
-        <v>1.070097665112651</v>
+        <v>1.049591431135351</v>
       </c>
       <c r="F7">
-        <v>1.077365130864578</v>
+        <v>1.052755173051866</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049235066362624</v>
+        <v>1.06069549903612</v>
       </c>
       <c r="J7">
-        <v>1.061011714705549</v>
+        <v>1.053072648055343</v>
       </c>
       <c r="K7">
-        <v>1.057232908130802</v>
+        <v>1.054145633270784</v>
       </c>
       <c r="L7">
-        <v>1.072497685366071</v>
+        <v>1.059123209039103</v>
       </c>
       <c r="M7">
-        <v>1.079748137828479</v>
+        <v>1.062253199828871</v>
       </c>
       <c r="N7">
-        <v>1.024007534159711</v>
+        <v>1.020645815927597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055013424981424</v>
+        <v>1.026889180969717</v>
       </c>
       <c r="D8">
-        <v>1.053611939556155</v>
+        <v>1.038822909697177</v>
       </c>
       <c r="E8">
-        <v>1.068499886575798</v>
+        <v>1.042174929608767</v>
       </c>
       <c r="F8">
-        <v>1.075580607071869</v>
+        <v>1.04459546139031</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048725527506513</v>
+        <v>1.057686336033882</v>
       </c>
       <c r="J8">
-        <v>1.059906505976993</v>
+        <v>1.047745133271202</v>
       </c>
       <c r="K8">
-        <v>1.056295132902799</v>
+        <v>1.049501476468283</v>
       </c>
       <c r="L8">
-        <v>1.071143572618507</v>
+        <v>1.052812383661709</v>
       </c>
       <c r="M8">
-        <v>1.078205917647692</v>
+        <v>1.055203431326858</v>
       </c>
       <c r="N8">
-        <v>1.023624497578776</v>
+        <v>1.018753370119098</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052251895681693</v>
+        <v>1.01265622484814</v>
       </c>
       <c r="D9">
-        <v>1.051521286688022</v>
+        <v>1.028140194564324</v>
       </c>
       <c r="E9">
-        <v>1.065683764608641</v>
+        <v>1.02838197303841</v>
       </c>
       <c r="F9">
-        <v>1.072437493912655</v>
+        <v>1.02943135246177</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047815506133531</v>
+        <v>1.051980681274848</v>
       </c>
       <c r="J9">
-        <v>1.057951244912742</v>
+        <v>1.037769841042819</v>
       </c>
       <c r="K9">
-        <v>1.054634049691265</v>
+        <v>1.040792638373608</v>
       </c>
       <c r="L9">
-        <v>1.068752456512417</v>
+        <v>1.041030764061137</v>
       </c>
       <c r="M9">
-        <v>1.075485616487785</v>
+        <v>1.042064314791674</v>
       </c>
       <c r="N9">
-        <v>1.022944860852314</v>
+        <v>1.015201863000877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050408301085925</v>
+        <v>1.002558341444617</v>
       </c>
       <c r="D10">
-        <v>1.05012492569641</v>
+        <v>1.020579680445274</v>
       </c>
       <c r="E10">
-        <v>1.063805799281021</v>
+        <v>1.018628214602905</v>
       </c>
       <c r="F10">
-        <v>1.070342904301423</v>
+        <v>1.018713882980461</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047200609170978</v>
+        <v>1.047873259238506</v>
       </c>
       <c r="J10">
-        <v>1.056642440159757</v>
+        <v>1.030670822215039</v>
       </c>
       <c r="K10">
-        <v>1.053520805222448</v>
+        <v>1.034587044839326</v>
       </c>
       <c r="L10">
-        <v>1.067154906593047</v>
+        <v>1.032669083763645</v>
       </c>
       <c r="M10">
-        <v>1.073670126061205</v>
+        <v>1.032753277815676</v>
       </c>
       <c r="N10">
-        <v>1.022488600695608</v>
+        <v>1.01267003761937</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049609360942193</v>
+        <v>0.9980215404577424</v>
       </c>
       <c r="D11">
-        <v>1.049519655656095</v>
+        <v>1.01718853957907</v>
       </c>
       <c r="E11">
-        <v>1.062992460213593</v>
+        <v>1.014254237709857</v>
       </c>
       <c r="F11">
-        <v>1.069436083425846</v>
+        <v>1.013908746486664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046932392161675</v>
+        <v>1.046014461205665</v>
       </c>
       <c r="J11">
-        <v>1.056074435648743</v>
+        <v>1.027476857913277</v>
       </c>
       <c r="K11">
-        <v>1.053037352706644</v>
+        <v>1.031793425372909</v>
       </c>
       <c r="L11">
-        <v>1.066462300319329</v>
+        <v>1.028912255047818</v>
       </c>
       <c r="M11">
-        <v>1.072883504388871</v>
+        <v>1.028573045982221</v>
       </c>
       <c r="N11">
-        <v>1.02229027767013</v>
+        <v>1.011530158919164</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049312498216509</v>
+        <v>0.9963097891963619</v>
       </c>
       <c r="D12">
-        <v>1.04929473435634</v>
+        <v>1.015910017337013</v>
       </c>
       <c r="E12">
-        <v>1.062690322105488</v>
+        <v>1.012605213411248</v>
       </c>
       <c r="F12">
-        <v>1.069099269263621</v>
+        <v>1.012097285907694</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046832468541781</v>
+        <v>1.045311180291345</v>
       </c>
       <c r="J12">
-        <v>1.055863258752019</v>
+        <v>1.026271150660655</v>
       </c>
       <c r="K12">
-        <v>1.052857563523701</v>
+        <v>1.030738625032264</v>
       </c>
       <c r="L12">
-        <v>1.066204904489239</v>
+        <v>1.027494837428687</v>
       </c>
       <c r="M12">
-        <v>1.072591239903366</v>
+        <v>1.026996333824785</v>
       </c>
       <c r="N12">
-        <v>1.022216497049027</v>
+        <v>1.011099768080197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049376180886221</v>
+        <v>0.9966782009741678</v>
       </c>
       <c r="D13">
-        <v>1.049342985153705</v>
+        <v>1.016185141728997</v>
       </c>
       <c r="E13">
-        <v>1.062755133053095</v>
+        <v>1.012960065403665</v>
       </c>
       <c r="F13">
-        <v>1.069171516212576</v>
+        <v>1.012487087875366</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046853915903176</v>
+        <v>1.04546263092938</v>
       </c>
       <c r="J13">
-        <v>1.055908565755984</v>
+        <v>1.026530675702551</v>
       </c>
       <c r="K13">
-        <v>1.052896138594525</v>
+        <v>1.030965677421032</v>
       </c>
       <c r="L13">
-        <v>1.066260122734965</v>
+        <v>1.027799898106761</v>
       </c>
       <c r="M13">
-        <v>1.072653935208542</v>
+        <v>1.027335658260027</v>
       </c>
       <c r="N13">
-        <v>1.022232328438044</v>
+        <v>1.011192412224134</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049584824249437</v>
+        <v>0.9978806004289028</v>
       </c>
       <c r="D14">
-        <v>1.049501065579516</v>
+        <v>1.01708324988057</v>
       </c>
       <c r="E14">
-        <v>1.062967485964615</v>
+        <v>1.014118435816413</v>
       </c>
       <c r="F14">
-        <v>1.069408241882474</v>
+        <v>1.013759565401048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0469241384859</v>
+        <v>1.045956594535361</v>
       </c>
       <c r="J14">
-        <v>1.056056983684116</v>
+        <v>1.027377595966396</v>
       </c>
       <c r="K14">
-        <v>1.053022495638595</v>
+        <v>1.031706591462438</v>
       </c>
       <c r="L14">
-        <v>1.066441026585995</v>
+        <v>1.028795548180746</v>
       </c>
       <c r="M14">
-        <v>1.072859347325666</v>
+        <v>1.028443214121431</v>
       </c>
       <c r="N14">
-        <v>1.022284181282257</v>
+        <v>1.011494727964644</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049713362869928</v>
+        <v>0.998617856336155</v>
       </c>
       <c r="D15">
-        <v>1.049598451243311</v>
+        <v>1.017634059339839</v>
       </c>
       <c r="E15">
-        <v>1.063098319845802</v>
+        <v>1.014828867160843</v>
       </c>
       <c r="F15">
-        <v>1.069554098870409</v>
+        <v>1.014539992813617</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046967365698978</v>
+        <v>1.046259215569605</v>
       </c>
       <c r="J15">
-        <v>1.056148403007001</v>
+        <v>1.027896809674312</v>
       </c>
       <c r="K15">
-        <v>1.053100320061888</v>
+        <v>1.032160788433545</v>
       </c>
       <c r="L15">
-        <v>1.066552469987875</v>
+        <v>1.029406042940638</v>
       </c>
       <c r="M15">
-        <v>1.072985898070976</v>
+        <v>1.029122384113052</v>
       </c>
       <c r="N15">
-        <v>1.022316114326819</v>
+        <v>1.011680054585711</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050461310137921</v>
+        <v>1.002855814330372</v>
       </c>
       <c r="D16">
-        <v>1.050165081943231</v>
+        <v>1.02080216087042</v>
       </c>
       <c r="E16">
-        <v>1.063859774163988</v>
+        <v>1.018915186644272</v>
       </c>
       <c r="F16">
-        <v>1.070403089918756</v>
+        <v>1.019029160830948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04721836841394</v>
+        <v>1.04799486555159</v>
       </c>
       <c r="J16">
-        <v>1.056680109545312</v>
+        <v>1.03088015860647</v>
       </c>
       <c r="K16">
-        <v>1.053552860531342</v>
+        <v>1.034770110319065</v>
       </c>
       <c r="L16">
-        <v>1.067200854344206</v>
+        <v>1.032915418036615</v>
       </c>
       <c r="M16">
-        <v>1.073722320736846</v>
+        <v>1.033027437993381</v>
       </c>
       <c r="N16">
-        <v>1.022501746697233</v>
+        <v>1.012744732704875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050930301223261</v>
+        <v>1.005468896774984</v>
       </c>
       <c r="D17">
-        <v>1.050520342991716</v>
+        <v>1.022757144091368</v>
       </c>
       <c r="E17">
-        <v>1.064337367632382</v>
+        <v>1.021436964003225</v>
       </c>
       <c r="F17">
-        <v>1.070935677622618</v>
+        <v>1.021799786590031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04737528962662</v>
+        <v>1.049061577052433</v>
       </c>
       <c r="J17">
-        <v>1.05701329005401</v>
+        <v>1.032718523529819</v>
       </c>
       <c r="K17">
-        <v>1.053836348566812</v>
+        <v>1.036377586471839</v>
       </c>
       <c r="L17">
-        <v>1.06760733774086</v>
+        <v>1.035079283329296</v>
       </c>
       <c r="M17">
-        <v>1.074184122823864</v>
+        <v>1.03543608626425</v>
       </c>
       <c r="N17">
-        <v>1.022617985299133</v>
+        <v>1.013400610910723</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051203793124053</v>
+        <v>1.00697734341733</v>
       </c>
       <c r="D18">
-        <v>1.0507274994341</v>
+        <v>1.02388621824718</v>
       </c>
       <c r="E18">
-        <v>1.064615923818101</v>
+        <v>1.022893474399817</v>
       </c>
       <c r="F18">
-        <v>1.071246341726499</v>
+        <v>1.023400122818126</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04746662982594</v>
+        <v>1.049676085003036</v>
       </c>
       <c r="J18">
-        <v>1.057207504907152</v>
+        <v>1.03377932214499</v>
       </c>
       <c r="K18">
-        <v>1.054001566369886</v>
+        <v>1.037305000030528</v>
       </c>
       <c r="L18">
-        <v>1.067844350136383</v>
+        <v>1.036328400727459</v>
       </c>
       <c r="M18">
-        <v>1.074453435883908</v>
+        <v>1.036826804724476</v>
       </c>
       <c r="N18">
-        <v>1.02268571207764</v>
+        <v>1.013779000628367</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051297036252718</v>
+        <v>1.007489072644186</v>
       </c>
       <c r="D19">
-        <v>1.050798124069827</v>
+        <v>1.024269334215319</v>
       </c>
       <c r="E19">
-        <v>1.064710901641498</v>
+        <v>1.02338771379609</v>
       </c>
       <c r="F19">
-        <v>1.071352272744913</v>
+        <v>1.023943184427891</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047497742397527</v>
+        <v>1.049884335038286</v>
       </c>
       <c r="J19">
-        <v>1.057273706228712</v>
+        <v>1.034139115558769</v>
       </c>
       <c r="K19">
-        <v>1.054057878353162</v>
+        <v>1.037619526107462</v>
       </c>
       <c r="L19">
-        <v>1.067925151315923</v>
+        <v>1.036752150939686</v>
       </c>
       <c r="M19">
-        <v>1.074545256569015</v>
+        <v>1.037298642589361</v>
       </c>
       <c r="N19">
-        <v>1.022708792753511</v>
+        <v>1.013907326642991</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050879989422184</v>
+        <v>1.005190176813755</v>
       </c>
       <c r="D20">
-        <v>1.050482233196847</v>
+        <v>1.022548563676585</v>
       </c>
       <c r="E20">
-        <v>1.064286128048291</v>
+        <v>1.02116790245637</v>
       </c>
       <c r="F20">
-        <v>1.070878534504788</v>
+        <v>1.021504164218223</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047358473052613</v>
+        <v>1.048947929497692</v>
       </c>
       <c r="J20">
-        <v>1.056977555748298</v>
+        <v>1.032522481610613</v>
       </c>
       <c r="K20">
-        <v>1.053805947059418</v>
+        <v>1.036206182254355</v>
       </c>
       <c r="L20">
-        <v>1.067563734469801</v>
+        <v>1.034848479083565</v>
       </c>
       <c r="M20">
-        <v>1.074134580845373</v>
+        <v>1.035179142020792</v>
       </c>
       <c r="N20">
-        <v>1.022605521576068</v>
+        <v>1.013330676064838</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049523386784721</v>
+        <v>0.9975272736794828</v>
       </c>
       <c r="D21">
-        <v>1.049454517524924</v>
+        <v>1.016819311983018</v>
       </c>
       <c r="E21">
-        <v>1.06290495411206</v>
+        <v>1.013778011024876</v>
       </c>
       <c r="F21">
-        <v>1.069338531559809</v>
+        <v>1.013385603693902</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046903467861547</v>
+        <v>1.045811495709232</v>
       </c>
       <c r="J21">
-        <v>1.056013283694418</v>
+        <v>1.027128743597049</v>
       </c>
       <c r="K21">
-        <v>1.052985292541321</v>
+        <v>1.031488893028746</v>
       </c>
       <c r="L21">
-        <v>1.066387758546327</v>
+        <v>1.028502973233212</v>
       </c>
       <c r="M21">
-        <v>1.072798860756605</v>
+        <v>1.028117743045883</v>
       </c>
       <c r="N21">
-        <v>1.022268915080374</v>
+        <v>1.011405900216554</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048669852318872</v>
+        <v>0.9925544286647894</v>
       </c>
       <c r="D22">
-        <v>1.048807789636566</v>
+        <v>1.013107023793858</v>
       </c>
       <c r="E22">
-        <v>1.062036393323297</v>
+        <v>1.008989918596259</v>
       </c>
       <c r="F22">
-        <v>1.068370381797992</v>
+        <v>1.008126035136037</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04661567565603</v>
+        <v>1.04376475661649</v>
       </c>
       <c r="J22">
-        <v>1.0554058799776</v>
+        <v>1.023624929831143</v>
       </c>
       <c r="K22">
-        <v>1.052468079097214</v>
+        <v>1.028423224231796</v>
       </c>
       <c r="L22">
-        <v>1.065647616600986</v>
+        <v>1.024385362634782</v>
       </c>
       <c r="M22">
-        <v>1.071958586899217</v>
+        <v>1.023538214377788</v>
       </c>
       <c r="N22">
-        <v>1.022056613800439</v>
+        <v>1.010155028106874</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049122383467656</v>
+        <v>0.9952059910854103</v>
       </c>
       <c r="D23">
-        <v>1.049150686101113</v>
+        <v>1.01508586869064</v>
       </c>
       <c r="E23">
-        <v>1.062496850040109</v>
+        <v>1.01154223603541</v>
       </c>
       <c r="F23">
-        <v>1.068883606796271</v>
+        <v>1.010929627815375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046768402407352</v>
+        <v>1.044857138648802</v>
       </c>
       <c r="J23">
-        <v>1.055727983704733</v>
+        <v>1.025493503244658</v>
       </c>
       <c r="K23">
-        <v>1.052742381335124</v>
+        <v>1.030058248822307</v>
       </c>
       <c r="L23">
-        <v>1.066040052592854</v>
+        <v>1.026580857161915</v>
       </c>
       <c r="M23">
-        <v>1.072404075872304</v>
+        <v>1.025979761900769</v>
       </c>
       <c r="N23">
-        <v>1.022169221788571</v>
+        <v>1.010822155278384</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050902723353038</v>
+        <v>1.005316166806995</v>
       </c>
       <c r="D24">
-        <v>1.050499453562261</v>
+        <v>1.022642846812301</v>
       </c>
       <c r="E24">
-        <v>1.064309281060217</v>
+        <v>1.021289524160102</v>
       </c>
       <c r="F24">
-        <v>1.070904354974574</v>
+        <v>1.021637791689734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047366072323427</v>
+        <v>1.048999305632356</v>
       </c>
       <c r="J24">
-        <v>1.056993702925106</v>
+        <v>1.032611099922863</v>
       </c>
       <c r="K24">
-        <v>1.053819684612147</v>
+        <v>1.036283663880947</v>
       </c>
       <c r="L24">
-        <v>1.067583437165999</v>
+        <v>1.034952809738271</v>
       </c>
       <c r="M24">
-        <v>1.074156966882119</v>
+        <v>1.035295287838961</v>
       </c>
       <c r="N24">
-        <v>1.022611153622325</v>
+        <v>1.0133622894744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052966260551665</v>
+        <v>1.016436984481294</v>
       </c>
       <c r="D25">
-        <v>1.052062222653874</v>
+        <v>1.030975095253046</v>
       </c>
       <c r="E25">
-        <v>1.066411887460381</v>
+        <v>1.032040576504964</v>
       </c>
       <c r="F25">
-        <v>1.073249908391103</v>
+        <v>1.033452523571623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048052213085966</v>
+        <v>1.053506681874299</v>
       </c>
       <c r="J25">
-        <v>1.058457653697076</v>
+        <v>1.040423563978534</v>
       </c>
       <c r="K25">
-        <v>1.055064506379253</v>
+        <v>1.043110865667168</v>
       </c>
       <c r="L25">
-        <v>1.069371221076101</v>
+        <v>1.044161061780829</v>
       </c>
       <c r="M25">
-        <v>1.076189214599738</v>
+        <v>1.045552814844526</v>
       </c>
       <c r="N25">
-        <v>1.023121120012596</v>
+        <v>1.016147496647884</v>
       </c>
     </row>
   </sheetData>
